--- a/biology/Botanique/Chevalet_pliable/Chevalet_pliable.xlsx
+++ b/biology/Botanique/Chevalet_pliable/Chevalet_pliable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un  chevalet pliable (appelé aussi bien  tréteau pliable ) est une pièce de bois horizontale équipée de quatre jambes divergentes pliables qu'on utilise, conjointement avec au moins un autre du même type, pour tenir une Planche en bois (ou un autre matériel). L'assemblage des chevalets permet de supporter des tables ou des bureaux improvisés ou permanents.
 Les chevalets pliants peuvent être employés dans des applications bien différentes de celles des chevalets fixes.
@@ -512,7 +524,9 @@
           <t>Table à tréteaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une table à tréteaux (ou table à chevalets) est une forme de table improvisé. En forme et la production, il ressemble parfois à certaines variations de l'antique bureau de campagne qui a été utilisé par les officiers non loin du champ de bataille. Fondamentalement, une "table à tréteaux" moderne est une planche en bois sur deux chevalets.
 Par exemple, le fondateur d'Amazon.com, Jeff Bezos et les cadres supérieurs d'Amazon travaillaient habituellement sur des portes montées sur des chevalets, comme un exemple visible d'une culture d'entreprise frugale.
